--- a/pop_collection.xlsx
+++ b/pop_collection.xlsx
@@ -511,7 +511,7 @@
   <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
